--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <x:si>
     <x:r>
       <x:rPr>
@@ -106,6 +106,393 @@
     <x:phoneticPr fontId="0" type="noConversion"/>
   </x:si>
   <x:si>
+    <x:t>title</x:t>
+  </x:si>
+  <x:si>
+    <x:t>videoUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>channelName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>channelUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노트북 살 때 꼭 알아야 할 것들! 용도별로 이것만은 반드시 확인하세요 [꿀가주몽 ep.8]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=JssIhbh3I9A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테크몽 Techmong</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCFX6adXoyQKxft933NB3rmA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4월 한대표 강력추천 노트북 리뷰~ 현재 이 노트북보다 합리적인 노트북은 없다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=U65iwE-x2Gk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개발도하는 한대표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCkWwuQT4J0tHKbF92ssbLHg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4월 쇼핑몰 판매 1위 노트북 언박싱~ 세상 좋은 건 다 담았다!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=0Y_QUjNcozs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX 3060 사지마세요! 차라리 게이밍 노트북 사자! AMD 라이젠 세잔 5800H 품은 레노버 LEGION 5 Pro 16ACH R7 STORM 리전5 프로 리뷰!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=F35CMpmrHFs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>곰새끼두마리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCfqkWlSqQFoORM6K_wSdazw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤럭시탭 필요 없어진다? 플립북 14 이건 또 뭔데 노트북 태블릿까지 될까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=EGx1vRIKba4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파란만장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCXTd_NJldy8tkixXPlXbEfw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021년 70만원 이하 가성비 노트북 4종 비교, 뭘 살지 알려드림! ft. AMD 5500U 루시엔 / 고정댓글 확인 필수(4월 12일 정보 수정)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=8yvlo9fkOq0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>꿀단지PD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/user/fallrain1229</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[4K] ROG Strix G713QM - 성능에서 모니터 연결방법까지!!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=3FVJLIj4uDk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지니어스PARK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCtVklA6vI8WdEJCijrdic_A</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구형 노트북 야 너두!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=1WCTn_Q8u24</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원태의 끄적끄적 WT KJKJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/user/ckdk5822</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가성비 노트북? 브랜드별 특징? 용도별 노트북 추천까지! 다 알려줄게요 [꿀가주몽 ep.3]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=FYIk87O53HY&amp;t=868s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주연 ZUYONI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCB11SAf7WSN4GrCquKoOHrw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021 삼성노트북 4종류, 7가지 모델 써봤습니다. (갤럭시 북 이온 2, 플렉스 2, 플렉스 2 5G, 노트북 플러스 2)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=rH6-KHsZZvs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노트북을 살때 반드시 프리도스인 모델을 사야하는 이유를 알려드립니다. / 컴린이전용, 숙련자 클릭 주의</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=v6EOv1hzi0s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>티라노의컴퓨터채널</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCXqraYfnaiyg7fbATQFHlkw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>가장 쌉니다! 어로스 게이밍 노트북 중에서 말이죠! 'GIGABYTE AORUS 5 MB i5 E'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=jzfUnZme_Q8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도레</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCJkpp4LpHyLteBAPpqWyMRw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>무슨 노트북이 5G가 돼요?.. 갤탭과 고민되는 듀얼카메라에 S펜 탑재한 신형 갤럭시북 Flex2 5G 사용기!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=GiAvDHHgulc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ITSub잇섭</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCdUcjkyZtf-1WJyPPiETF1g</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021년 가격대별 인기 가성비 노트북 추천 BEST 5 [가격, 성능 비교]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=qrfBurDXbbY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발품파는남자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCYEOw7z1RP4LkSy6uroVWdw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>태블릿 생각이 안나는 노트북? 예쁘고 소음 1도 없는 삼성 갤럭시북 S 인텔버전 사용기!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=N30g_wdupuA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[추천] 2021년 4월 가성비 노트북 추천 (대학생/사무용)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=-0xRh1XoHPw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>:만두얏의 가&amp;꿀[가성비&amp;꿀팁]:</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCnnRyMpraQ61XwdUnDPIKPQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한국인이 좋아하는 기능을 모조리 넣은 노트북! 가성비가 미쳤는데요?! / 한성TFX5450UC 상세리뷰!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=SMc_rm-jziE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그램16 끝장리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=FL5AAB9NsW8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>다성아빠 - IT분석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/user/MrHolliholic</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게이밍 노트북과 슬림 노트북의 이종결합. 에이수스 #ROGFlow #FlowX13 #GV301</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=_wYHuMCgTx0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기즈모 gizmo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/channel/UCfhGg1ZQ5W44nWx4WRhneRw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노트북용 C타입 PD충전기 구매가이드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=nyme0hEgoVs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 5.4만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1일 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 6.1천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2일 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게이밍 노트북 '이거' 모르고 사면 '눈탱이' 맞는다?! (feat.MSI GP76)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=MnLhCa_x4UQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 4.6천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1주 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 3천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>17시간 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1.9만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6일 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 5.8천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 2.4천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>노트북도 플렉서블!! 씽크패드 X1 폴드 [CES 2020]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=HPWOSG34ck4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 22만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1년 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 67만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5개월 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 40만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3개월 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 8.4천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21시간 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 12만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4주 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 89만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 7.5만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1개월 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 17만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2개월 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 55만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 2만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 5천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>갤럭시 북 이온2 끝장리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=JVKf6ggGVSA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1.1만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1.4만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맥북은 도대체 왜쓰는걸까?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=NLFTVvi2PVs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 240만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20시간 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>한 대의 노트북만 쓸 수 있다면, 난 이거. ASUS ROG 제피러스 G15(5900HS, RTX3060) 최종리뷰</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=UFC1w_F1C44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021년 노트북 종결템? ASUS 제피러스 G15 성능리뷰 (세잔 5900HS, RTX3060)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=TxRJQIa-gxo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1.2만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2주 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>최대 44%까지 할인? 학생들 대부분이 모르고있는 태블릿/노트북/핸드폰 할인받는 꿀팁 총정리! (Feat. 애플vs삼성 할인 대결)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=gpByNn_rxKI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 37만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>오만상사 | 이런게 혁신이죠. 테크충의 기본템? 2만원대 휴대폰/노트북 등 초소형 만능 충전기가 있다?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=DQ0PG3qGiSU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 119만회</x:t>
+  </x:si>
+  <x:si>
     <x:t>Title</x:t>
   </x:si>
   <x:si>
@@ -118,216 +505,6 @@
     <x:t>RecentUpdate</x:t>
   </x:si>
   <x:si>
-    <x:t>노트북 살 때 꼭 알아야 할 것들! 용도별로 이것만은 반드시 확인하세요 [꿀가주몽 ep.8]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=JssIhbh3I9A</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 5.4만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1일 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4월 한대표 강력추천 노트북 리뷰~ 현재 이 노트북보다 합리적인 노트북은 없다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=U65iwE-x2Gk</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 6.1천회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>태블릿 생각이 안나는 노트북? 예쁘고 소음 1도 없는 삼성 갤럭시북 S 인텔버전 사용기!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=N30g_wdupuA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 89만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5개월 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게이밍 노트북 '이거' 모르고 사면 '눈탱이' 맞는다?! (feat.MSI GP76)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=MnLhCa_x4UQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 4.6천회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1주 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한국인이 좋아하는 기능을 모조리 넣은 노트북! 가성비가 미쳤는데요?! / 한성TFX5450UC 상세리뷰!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=SMc_rm-jziE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 17만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2개월 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>갤럭시 북 이온2 끝장리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=JVKf6ggGVSA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 1만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>무슨 노트북이 5G가 돼요?.. 갤탭과 고민되는 듀얼카메라에 S펜 탑재한 신형 갤럭시북 Flex2 5G 사용기!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=GiAvDHHgulc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 55만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3개월 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가성비 노트북? 브랜드별 특징? 용도별 노트북 추천까지! 다 알려줄게요 [꿀가주몽 ep.3]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=FYIk87O53HY&amp;t=868s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 67만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021년 70만원 이하 가성비 노트북 4종 비교, 뭘 살지 알려드림! ft. AMD 5500U 루시엔 / 고정댓글 확인 필수(4월 12일 정보 수정)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=8yvlo9fkOq0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 5.8천회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2일 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021 삼성노트북 4종류, 7가지 모델 써봤습니다. (갤럭시 북 이온 2, 플렉스 2, 플렉스 2 5G, 노트북 플러스 2)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=rH6-KHsZZvs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 40만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맥북은 도대체 왜쓰는걸까?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=NLFTVvi2PVs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 240만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1년 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021년 가격대별 인기 가성비 노트북 추천 BEST 5 [가격, 성능 비교]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=qrfBurDXbbY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 7.5만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1개월 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>노트북을 살때 반드시 프리도스인 모델을 사야하는 이유를 알려드립니다. / 컴린이전용, 숙련자 클릭 주의</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=v6EOv1hzi0s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 12만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4주 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>가장 쌉니다! 어로스 게이밍 노트북 중에서 말이죠! 'GIGABYTE AORUS 5 MB i5 E'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=jzfUnZme_Q8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 8.4천회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20시간 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[추천] 2021년 4월 가성비 노트북 추천 (대학생/사무용)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=-0xRh1XoHPw</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 2만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>한 대의 노트북만 쓸 수 있다면, 난 이거. ASUS ROG 제피러스 G15(5900HS, RTX3060) 최종리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=UFC1w_F1C44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>게이밍 노트북과 슬림 노트북의 이종결합. 에이수스 #ROGFlow #FlowX13 #GV301</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=_wYHuMCgTx0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 1.4만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021년 노트북 종결템? ASUS 제피러스 G15 성능리뷰 (세잔 5900HS, RTX3060)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=TxRJQIa-gxo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 1.2만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2주 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>최대 44%까지 할인? 학생들 대부분이 모르고있는 태블릿/노트북/핸드폰 할인받는 꿀팁 총정리! (Feat. 애플vs삼성 할인 대결)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=gpByNn_rxKI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 37만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오만상사 | 이런게 혁신이죠. 테크충의 기본템? 2만원대 휴대폰/노트북 등 초소형 만능 충전기가 있다?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=DQ0PG3qGiSU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 119만회</x:t>
-  </x:si>
-  <x:si>
     <x:t>고치지 못한 것은... 단 한가지. 하지만 거의 모든게 환골탈태한 2021 LG 그램 변경된 점 총정리! (Feat. 해체쇼)</x:t>
   </x:si>
   <x:si>
@@ -346,13 +523,22 @@
     <x:t>조회수 41만회</x:t>
   </x:si>
   <x:si>
-    <x:t>그램16 끝장리뷰</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=FL5AAB9NsW8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 5천회</x:t>
+    <x:t>그램2021_16인치 살까말까? 간단명료 3분정리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=JSiQb_SHaGQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 810회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1시간 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 2.8천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11개월 전</x:t>
   </x:si>
   <x:si>
     <x:t>그램16 구매가이드 / 그램16과 16인치 해상도 디스플레이 이해하기</x:t>
@@ -364,7 +550,13 @@
     <x:t>조회수 5.4천회</x:t>
   </x:si>
   <x:si>
-    <x:t>6일 전</x:t>
+    <x:t>노트북은 LG가 삼성을 찢을까요? 2020 LG 그램 15인치 언빡싱 &amp; 간단 비교하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=o9XgP0dCrxQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 109만회</x:t>
   </x:si>
   <x:si>
     <x:t>갤럭시 북 이온2 성능, 그램의 2배 실화? 이온 2 MX450 VS 그램 성능 테스트!</x:t>
@@ -376,16 +568,16 @@
     <x:t>조회수 10만회</x:t>
   </x:si>
   <x:si>
-    <x:t>노트북은 LG가 삼성을 찢을까요? 2020 LG 그램 15인치 언빡싱 &amp; 간단 비교하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=o9XgP0dCrxQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 109만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11개월 전</x:t>
+    <x:t>2021 그램 블랙 색상이 이염이 되네요? 이제 검정색 그램은 추천 못 하겠습니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=MQCHijH8fhM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 4천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4일 전</x:t>
   </x:si>
   <x:si>
     <x:t>최초 공개! 21년형 LG그램 언박싱 / 모든 것이 새롭다 / 3가지 색상(블랙 실버 화이트)</x:t>
@@ -397,6 +589,24 @@
     <x:t>조회수 8만회</x:t>
   </x:si>
   <x:si>
+    <x:t>지금 갤럭시북/그램 노트북 사지 마세요! 곧 출시될 새로운 2021 LG 그램에 대한 기대&amp;걱정되는 것 6가지 총정리!</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=-Fvwu724xvQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 52만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4개월 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021 신상 노트북 뭐 살래? LG 그램 16 vs 삼성 이온2 (15.6) feat. 테크몽 X 꿀단지PD 티카타카</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=ftuklDTMnjI</x:t>
+  </x:si>
+  <x:si>
     <x:t>새내기의 LG gram 2021 언박싱 ‍ | 맥북이 있는데도 그램을 산 이유는? | unboxing</x:t>
   </x:si>
   <x:si>
@@ -406,16 +616,40 @@
     <x:t>조회수 5.2만회</x:t>
   </x:si>
   <x:si>
-    <x:t>지금 갤럭시북/그램 노트북 사지 마세요! 곧 출시될 새로운 2021 LG 그램에 대한 기대&amp;걱정되는 것 6가지 총정리!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=-Fvwu724xvQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 52만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4개월 전</x:t>
+    <x:t>[용산1-스마트폰 SNS(카카오톡+인스타그램)] 4월 13일 화요일 15:30 ~ 18:00 (3회차)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=Hy3KTb3YGHE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7명 시청 중</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전.. 이것을 추천하지 않습니다. 노트북 수명을 단축시키는 두 가지 습관?! (+ 배터리 수명 향상시키는 꿀팁)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=sXWlX8eqfTc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 135만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021년의 새로운 2in1 노트북 LG 그램 360 리뷰 (드디어 16형에도 360모델이?!)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=3RbAGjkI-dY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1.5천회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분명 LG 그램인데 화면이 돌아가네요? 거기에 펜까지..?! 'LG 그램 360 16TD90P'</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=4h160JmCn3Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3일 전</x:t>
   </x:si>
   <x:si>
     <x:t>2021년형 LG 그램16 노트북 리뷰 – 완성도는 높아졌지만 가격은 하늘을 뚫어버렸다</x:t>
@@ -424,55 +658,91 @@
     <x:t>/watch?v=TiAkr0GcVPE</x:t>
   </x:si>
   <x:si>
-    <x:t>2021 16인치 LG그램 2주 사용 후 느낀 장/단점 + 이런 사람에게 추천한다!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=C_3cZwcfp9Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 2.3만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021 그램16, 이온2 비교 분석과 추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=e8X_sru9N_E</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 8.1만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021년의 새로운 2in1 노트북 LG 그램 360 리뷰 (드디어 16형에도 360모델이?!)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=3RbAGjkI-dY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 1.5천회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역대급 PD 충전기 4포트,120W,221그램 아임커머스 130PDGAN! 맥북,이온,그램,갤럭시,아이폰,아이패드 모두 충전 가능! (USB 충전기, 멀티충전기)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=ngpfAFJZxI8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021 그램 블랙 색상이 이염이 되네요? 이제 검정색 그램은 추천 못 하겠습니다.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=MQCHijH8fhM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 4천회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4일 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 맥북이 아닌 2021 그램 16 언박싱 | ‍ 대학생 노트북 | 노트북 액세서리 | 윈도우 설치 | Unboxing</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=EJxFZQQcfzU</x:t>
+    <x:t>랩탑 사는데 이거 빼놓고 고민하는거 의미있음? (LG 그램 360)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=FhlhXhGFBR0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[중등인강/중2 과학] 이온 - 수박씨닷컴 안현정선생님</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=krAs4JzgZ-o</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 2.7만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>중학과학 이온개념</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=g4GDd4wsYZM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 1.6만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2년 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세계최초 노트북에 QLED를 넣고 LG그램을 이길 수 있나요? 삼성 갤럭시북 이온 언빡싱! (신학기 노트북 추천 첫 번째)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=LVOFYfoU1I0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 82만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앙금 생성 반응 암기법</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=gKJUGNTVDFg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>[중등인강/중2 과학] 이온② : 앙금 생성 반응 - 수박씨닷컴 김설선생님</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=5_lfYPC43S8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 2.9만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10개월 전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>새티니크 이온 헤어드라이어, 정전기를 잡아준다고?? 1년 사용 찐후기 / 정식출시됐어요! 생활의 질을 올려주는 인생 드라이기 만나기 / 정전기 비교테스트까지 !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=JZdO1cVwpzI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 100회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO광고) 갤럭시북 이온, 장단점 ✔ 그램vs이온 | 대학생 노트북 고르는 팁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=Ody9eWiibbQ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 38만회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이온, 분자식, 과학송, 중2 과학 I 열공뮤직</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=ScxLD5UEoMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020 그램 vs 갤럭시북 이온 비교 리뷰 - 무너져버린 균형</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/watch?v=8I4teImBWfo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조회수 45만회</x:t>
   </x:si>
   <x:si>
     <x:t>2021 그램 vs 갤럭시북 이온2 - 현실적인 조언</x:t>
@@ -481,114 +751,6 @@
     <x:t>/watch?v=24JREcZ6ZwA</x:t>
   </x:si>
   <x:si>
-    <x:t>돈이 최곱니다... 확 달라진 가물치 연못!</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=4nLeR3s5al4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 3.4만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3시간 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분명 LG 그램인데 화면이 돌아가네요? 거기에 펜까지..?! 'LG 그램 360 16TD90P'</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=4h160JmCn3Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3일 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[중등인강/중2 과학] 이온 - 수박씨닷컴 안현정선생님</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=krAs4JzgZ-o</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 2.7만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>중학과학 이온개념</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=g4GDd4wsYZM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 1.6만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2년 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세계최초 노트북에 QLED를 넣고 LG그램을 이길 수 있나요? 삼성 갤럭시북 이온 언빡싱! (신학기 노트북 추천 첫 번째)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=LVOFYfoU1I0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 82만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2021 신상 노트북 뭐 살래? LG 그램 16 vs 삼성 이온2 (15.6) feat. 테크몽 X 꿀단지PD 티카타카</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=ftuklDTMnjI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앙금 생성 반응 암기법</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=gKJUGNTVDFg</x:t>
-  </x:si>
-  <x:si>
-    <x:t>[중등인강/중2 과학] 이온② : 앙금 생성 반응 - 수박씨닷컴 김설선생님</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=5_lfYPC43S8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 2.9만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10개월 전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>새티니크 이온 헤어드라이어, 정전기를 잡아준다고?? 1년 사용 찐후기 / 정식출시됐어요! 생활의 질을 올려주는 인생 드라이기 만나기 / 정전기 비교테스트까지 !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=JZdO1cVwpzI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 100회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NO광고) 갤럭시북 이온, 장단점 ✔ 그램vs이온 | 대학생 노트북 고르는 팁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=Ody9eWiibbQ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 38만회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이온, 분자식, 과학송, 중2 과학 I 열공뮤직</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=ScxLD5UEoMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2020 그램 vs 갤럭시북 이온 비교 리뷰 - 무너져버린 균형</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=8I4teImBWfo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 45만회</x:t>
-  </x:si>
-  <x:si>
     <x:t>[중2과학] 1단원 6차시 이온</x:t>
   </x:si>
   <x:si>
@@ -604,15 +766,6 @@
     <x:t>조회수 196만회</x:t>
   </x:si>
   <x:si>
-    <x:t>전.. 이것을 추천하지 않습니다. 노트북 수명을 단축시키는 두 가지 습관?! (+ 배터리 수명 향상시키는 꿀팁)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/watch?v=sXWlX8eqfTc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 135만회</x:t>
-  </x:si>
-  <x:si>
     <x:t>[툴앤툴] 18.5v 무선 해머 충전식 전기 드릴 (리튬이온) TNT-REX18LI</x:t>
   </x:si>
   <x:si>
@@ -629,9 +782,6 @@
   </x:si>
   <x:si>
     <x:t>/watch?v=oshhx-E8YPc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조회수 2.8천회</x:t>
   </x:si>
   <x:si>
     <x:t>18시간 전</x:t>
@@ -838,9 +988,21 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="24">
+  <x:cellStyleXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -1333,63 +1495,63 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
         <x:v>16</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B5" s="1" t="s">
+      <x:c r="C5" s="1" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C5" s="1" t="s">
+      <x:c r="D5" s="1" t="s">
         <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s">
+      <x:c r="C6" s="1" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="C6" s="1" t="s">
+      <x:c r="D6" s="1" t="s">
         <x:v>26</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="s">
-        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B7" s="1" t="s">
+      <x:c r="C7" s="1" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C7" s="1" t="s">
+      <x:c r="D7" s="1" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="s">
-        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -1417,35 +1579,35 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
@@ -1512,38 +1674,38 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="1" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B17" s="1" t="s">
+      <x:c r="C17" s="1" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -1571,21 +1733,21 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:4">
@@ -1596,10 +1758,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D22" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:4">
@@ -1610,66 +1772,66 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D23" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D24" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D25" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B26" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C26" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D26" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B27" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="C27" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D27" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:4">
@@ -1680,94 +1842,94 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D28" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C29" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D29" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B30" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C30" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D30" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B31" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C31" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D31" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:4">
       <x:c r="A32" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B32" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C32" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D32" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:4">
       <x:c r="A33" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B33" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C33" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D33" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:4">
       <x:c r="A34" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B34" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C34" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D34" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:4">
@@ -1778,52 +1940,52 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C35" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D35" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B36" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C36" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D36" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B37" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C37" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D37" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:4">
       <x:c r="A38" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B38" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C38" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D38" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:4">
@@ -1834,38 +1996,38 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C39" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D39" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B40" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C40" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D40" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:4">
       <x:c r="A41" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B41" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C41" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D41" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:4">
@@ -1876,10 +2038,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C42" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D42" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:4">
@@ -1890,66 +2052,66 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C43" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D43" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B44" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C44" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D44" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B45" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C45" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D45" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B46" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C46" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D46" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B47" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="C47" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D47" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:4">
@@ -1960,94 +2122,94 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C48" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D48" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B49" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C49" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D49" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:4">
       <x:c r="A50" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B50" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C50" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D50" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:4">
       <x:c r="A51" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B51" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C51" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D51" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:4">
       <x:c r="A52" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B52" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C52" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D52" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:4">
       <x:c r="A53" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B53" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C53" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D53" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:4">
       <x:c r="A54" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B54" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C54" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D54" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="55" spans="1:4">
@@ -2058,52 +2220,52 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C55" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D55" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:4">
       <x:c r="A56" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B56" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C56" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:4">
       <x:c r="A57" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B57" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C57" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D57" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="58" spans="1:4">
       <x:c r="A58" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B58" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C58" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D58" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="59" spans="1:4">
@@ -2114,38 +2276,38 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C59" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D59" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="60" spans="1:4">
       <x:c r="A60" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B60" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C60" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D60" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:4">
       <x:c r="A61" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B61" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C61" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D61" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="62" spans="1:4">
@@ -2156,10 +2318,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C62" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D62" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="63" spans="1:4">
@@ -2170,66 +2332,66 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C63" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D63" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="64" spans="1:4">
       <x:c r="A64" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B64" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C64" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D64" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:4">
       <x:c r="A65" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B65" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C65" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D65" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="66" spans="1:4">
       <x:c r="A66" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B66" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C66" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D66" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="67" spans="1:4">
       <x:c r="A67" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B67" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B67" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="C67" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D67" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="68" spans="1:4">
@@ -2240,94 +2402,94 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C68" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D68" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:4">
       <x:c r="A69" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B69" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C69" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D69" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="70" spans="1:4">
       <x:c r="A70" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B70" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C70" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D70" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="71" spans="1:4">
       <x:c r="A71" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B71" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C71" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D71" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="72" spans="1:4">
       <x:c r="A72" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B72" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C72" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D72" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:4">
       <x:c r="A73" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B73" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C73" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D73" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="74" spans="1:4">
       <x:c r="A74" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B74" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C74" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D74" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="75" spans="1:4">
@@ -2338,52 +2500,52 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C75" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D75" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="76" spans="1:4">
       <x:c r="A76" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B76" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C76" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D76" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:4">
       <x:c r="A77" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B77" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C77" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D77" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="78" spans="1:4">
       <x:c r="A78" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B78" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C78" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D78" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="79" spans="1:4">
@@ -2394,38 +2556,38 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C79" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D79" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="80" spans="1:4">
       <x:c r="A80" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B80" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C80" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D80" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="81" spans="1:4">
       <x:c r="A81" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B81" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C81" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D81" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="82" spans="1:4">
@@ -2436,10 +2598,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C82" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D82" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:4">
@@ -2450,66 +2612,66 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C83" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D83" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="84" spans="1:4">
       <x:c r="A84" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B84" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C84" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D84" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:4">
       <x:c r="A85" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B85" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C85" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D85" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="86" spans="1:4">
       <x:c r="A86" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B86" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B86" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C86" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D86" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="87" spans="1:4">
       <x:c r="A87" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B87" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B87" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="C87" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D87" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="88" spans="1:4">
@@ -2520,94 +2682,94 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C88" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D88" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="89" spans="1:4">
       <x:c r="A89" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B89" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C89" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D89" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:4">
       <x:c r="A90" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B90" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C90" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D90" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="91" spans="1:4">
       <x:c r="A91" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B91" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C91" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D91" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:4">
       <x:c r="A92" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B92" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C92" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D92" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:4">
       <x:c r="A93" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B93" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C93" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D93" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:4">
       <x:c r="A94" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B94" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C94" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D94" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="95" spans="1:4">
@@ -2618,52 +2780,52 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C95" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D95" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="96" spans="1:4">
       <x:c r="A96" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B96" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C96" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D96" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="97" spans="1:4">
       <x:c r="A97" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B97" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C97" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D97" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:4">
       <x:c r="A98" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B98" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C98" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D98" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="99" spans="1:4">
@@ -2674,38 +2836,38 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C99" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D99" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="100" spans="1:4">
       <x:c r="A100" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B100" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C100" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D100" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="101" spans="1:4">
       <x:c r="A101" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B101" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C101" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D101" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:4">
@@ -2716,10 +2878,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C102" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D102" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="103" spans="1:4">
@@ -2730,66 +2892,66 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C103" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D103" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="104" spans="1:4">
       <x:c r="A104" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B104" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C104" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D104" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="105" spans="1:4">
       <x:c r="A105" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B105" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C105" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="D105" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:4">
       <x:c r="A106" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B106" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B106" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="C106" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="D106" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="107" spans="1:4">
       <x:c r="A107" s="1" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B107" s="1" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B107" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
       <x:c r="C107" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D107" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:4">
@@ -2800,94 +2962,94 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="C108" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D108" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="109" spans="1:4">
       <x:c r="A109" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B109" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C109" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="D109" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:4">
       <x:c r="A110" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B110" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C110" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D110" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:4">
       <x:c r="A111" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B111" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C111" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D111" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="112" spans="1:4">
       <x:c r="A112" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B112" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C112" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D112" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>102</x:v>
       </x:c>
     </x:row>
     <x:row r="113" spans="1:4">
       <x:c r="A113" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B113" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C113" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D113" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:4">
       <x:c r="A114" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B114" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C114" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D114" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="115" spans="1:4">
@@ -2898,52 +3060,52 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="C115" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D115" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="116" spans="1:4">
       <x:c r="A116" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B116" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C116" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D116" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="117" spans="1:4">
       <x:c r="A117" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B117" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C117" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D117" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="118" spans="1:4">
       <x:c r="A118" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B118" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C118" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D118" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="119" spans="1:4">
@@ -2954,38 +3116,38 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="C119" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D119" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:4">
       <x:c r="A120" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B120" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C120" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D120" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="121" spans="1:4">
       <x:c r="A121" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B121" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C121" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D121" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="122" spans="1:4">
@@ -2996,10 +3158,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C122" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D122" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="123" spans="1:4">
@@ -3010,262 +3172,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C123" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D123" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="124" spans="1:4">
       <x:c r="A124" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B124" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C124" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D124" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="125" spans="1:4">
       <x:c r="A125" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B125" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C125" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D125" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:4">
       <x:c r="A126" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B126" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C126" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D126" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:4">
       <x:c r="A127" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B127" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C127" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D127" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="128" spans="1:4">
       <x:c r="A128" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B128" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C128" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D128" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="129" spans="1:4">
       <x:c r="A129" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B129" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C129" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D129" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="130" spans="1:4">
       <x:c r="A130" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B130" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C130" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D130" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:4">
       <x:c r="A131" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B131" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C131" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D131" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="132" spans="1:4">
       <x:c r="A132" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B132" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C132" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D132" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="133" spans="1:4">
       <x:c r="A133" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B133" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C133" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D133" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="134" spans="1:4">
       <x:c r="A134" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B134" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C134" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D134" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:4">
       <x:c r="A135" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B135" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C135" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D135" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="136" spans="1:4">
       <x:c r="A136" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B136" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C136" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D136" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="137" spans="1:4">
       <x:c r="A137" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B137" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C137" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D137" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="138" spans="1:4">
       <x:c r="A138" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B138" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C138" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D138" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:4">
       <x:c r="A139" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B139" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C139" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D139" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="140" spans="1:4">
       <x:c r="A140" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B140" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C140" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D140" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="141" spans="1:4">
       <x:c r="A141" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B141" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C141" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D141" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="142" spans="1:4">
@@ -3276,10 +3438,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C142" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D142" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:4">
@@ -3290,262 +3452,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C143" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D143" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="144" spans="1:4">
       <x:c r="A144" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B144" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C144" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D144" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="145" spans="1:4">
       <x:c r="A145" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B145" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C145" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D145" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="146" spans="1:4">
       <x:c r="A146" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B146" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C146" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D146" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:4">
       <x:c r="A147" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B147" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C147" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D147" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="148" spans="1:4">
       <x:c r="A148" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B148" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C148" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D148" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="149" spans="1:4">
       <x:c r="A149" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B149" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C149" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D149" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="150" spans="1:4">
       <x:c r="A150" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B150" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C150" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D150" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:4">
       <x:c r="A151" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B151" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C151" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D151" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="152" spans="1:4">
       <x:c r="A152" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B152" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C152" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D152" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="153" spans="1:4">
       <x:c r="A153" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B153" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C153" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D153" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="154" spans="1:4">
       <x:c r="A154" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B154" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C154" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D154" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="155" spans="1:4">
       <x:c r="A155" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B155" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C155" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D155" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="156" spans="1:4">
       <x:c r="A156" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B156" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C156" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D156" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="157" spans="1:4">
       <x:c r="A157" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B157" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C157" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D157" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="158" spans="1:4">
       <x:c r="A158" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B158" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C158" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D158" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="159" spans="1:4">
       <x:c r="A159" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B159" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C159" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D159" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="160" spans="1:4">
       <x:c r="A160" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B160" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C160" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D160" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="161" spans="1:4">
       <x:c r="A161" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B161" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C161" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D161" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="162" spans="1:4">
@@ -3556,10 +3718,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C162" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D162" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:4">
@@ -3570,262 +3732,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C163" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D163" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="164" spans="1:4">
       <x:c r="A164" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B164" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C164" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D164" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="165" spans="1:4">
       <x:c r="A165" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B165" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C165" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D165" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="166" spans="1:4">
       <x:c r="A166" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B166" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C166" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D166" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="167" spans="1:4">
       <x:c r="A167" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B167" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C167" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D167" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="168" spans="1:4">
       <x:c r="A168" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B168" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C168" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D168" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="169" spans="1:4">
       <x:c r="A169" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B169" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C169" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D169" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:4">
       <x:c r="A170" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B170" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C170" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D170" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="171" spans="1:4">
       <x:c r="A171" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B171" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C171" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D171" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="172" spans="1:4">
       <x:c r="A172" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B172" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C172" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D172" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="173" spans="1:4">
       <x:c r="A173" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B173" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C173" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D173" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="174" spans="1:4">
       <x:c r="A174" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B174" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C174" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D174" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="175" spans="1:4">
       <x:c r="A175" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B175" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C175" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D175" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="176" spans="1:4">
       <x:c r="A176" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B176" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C176" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D176" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="177" spans="1:4">
       <x:c r="A177" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B177" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C177" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D177" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="178" spans="1:4">
       <x:c r="A178" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B178" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C178" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D178" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="179" spans="1:4">
       <x:c r="A179" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B179" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C179" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D179" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="180" spans="1:4">
       <x:c r="A180" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B180" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C180" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D180" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:4">
       <x:c r="A181" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B181" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C181" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D181" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="182" spans="1:4">
@@ -3836,10 +3998,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C182" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D182" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="183" spans="1:4">
@@ -3850,262 +4012,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C183" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D183" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="184" spans="1:4">
       <x:c r="A184" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B184" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C184" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D184" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:4">
       <x:c r="A185" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B185" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C185" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D185" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="186" spans="1:4">
       <x:c r="A186" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B186" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C186" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D186" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:4">
       <x:c r="A187" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B187" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C187" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D187" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="188" spans="1:4">
       <x:c r="A188" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B188" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C188" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D188" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="189" spans="1:4">
       <x:c r="A189" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B189" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C189" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D189" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="190" spans="1:4">
       <x:c r="A190" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B190" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C190" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D190" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="191" spans="1:4">
       <x:c r="A191" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B191" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C191" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D191" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="192" spans="1:4">
       <x:c r="A192" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B192" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C192" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D192" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="193" spans="1:4">
       <x:c r="A193" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B193" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C193" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D193" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="194" spans="1:4">
       <x:c r="A194" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B194" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C194" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D194" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="195" spans="1:4">
       <x:c r="A195" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B195" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C195" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D195" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="196" spans="1:4">
       <x:c r="A196" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B196" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C196" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D196" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="197" spans="1:4">
       <x:c r="A197" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B197" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C197" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D197" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="198" spans="1:4">
       <x:c r="A198" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B198" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C198" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D198" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="199" spans="1:4">
       <x:c r="A199" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B199" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C199" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D199" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="200" spans="1:4">
       <x:c r="A200" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B200" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C200" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D200" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:4">
       <x:c r="A201" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B201" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C201" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D201" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="202" spans="1:4">
@@ -4116,10 +4278,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C202" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D202" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="203" spans="1:4">
@@ -4130,262 +4292,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C203" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D203" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="204" spans="1:4">
       <x:c r="A204" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B204" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C204" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D204" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="205" spans="1:4">
       <x:c r="A205" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B205" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C205" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D205" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:4">
       <x:c r="A206" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B206" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C206" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D206" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="207" spans="1:4">
       <x:c r="A207" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B207" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C207" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D207" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="208" spans="1:4">
       <x:c r="A208" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B208" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C208" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D208" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="209" spans="1:4">
       <x:c r="A209" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B209" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C209" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D209" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="210" spans="1:4">
       <x:c r="A210" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B210" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C210" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D210" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="211" spans="1:4">
       <x:c r="A211" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B211" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C211" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D211" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="212" spans="1:4">
       <x:c r="A212" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B212" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C212" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D212" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:4">
       <x:c r="A213" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B213" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C213" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D213" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="214" spans="1:4">
       <x:c r="A214" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B214" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C214" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D214" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="215" spans="1:4">
       <x:c r="A215" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B215" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C215" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D215" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="216" spans="1:4">
       <x:c r="A216" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B216" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C216" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D216" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:4">
       <x:c r="A217" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B217" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C217" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D217" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="218" spans="1:4">
       <x:c r="A218" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B218" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C218" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D218" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="219" spans="1:4">
       <x:c r="A219" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B219" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C219" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D219" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="220" spans="1:4">
       <x:c r="A220" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B220" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C220" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D220" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="221" spans="1:4">
       <x:c r="A221" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B221" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C221" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D221" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="222" spans="1:4">
@@ -4396,10 +4558,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C222" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D222" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="223" spans="1:4">
@@ -4410,262 +4572,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C223" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D223" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:4">
       <x:c r="A224" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B224" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C224" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D224" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="225" spans="1:4">
       <x:c r="A225" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B225" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C225" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D225" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="226" spans="1:4">
       <x:c r="A226" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B226" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C226" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D226" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="227" spans="1:4">
       <x:c r="A227" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B227" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C227" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D227" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="228" spans="1:4">
       <x:c r="A228" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B228" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C228" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D228" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="229" spans="1:4">
       <x:c r="A229" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B229" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C229" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D229" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="230" spans="1:4">
       <x:c r="A230" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B230" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C230" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D230" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="231" spans="1:4">
       <x:c r="A231" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B231" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C231" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D231" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="232" spans="1:4">
       <x:c r="A232" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B232" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C232" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D232" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="233" spans="1:4">
       <x:c r="A233" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B233" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C233" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D233" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:4">
       <x:c r="A234" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B234" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C234" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D234" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:4">
       <x:c r="A235" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B235" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C235" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D235" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="236" spans="1:4">
       <x:c r="A236" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B236" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C236" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D236" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="237" spans="1:4">
       <x:c r="A237" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B237" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C237" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D237" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="238" spans="1:4">
       <x:c r="A238" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B238" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C238" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D238" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="239" spans="1:4">
       <x:c r="A239" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B239" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C239" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D239" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="240" spans="1:4">
       <x:c r="A240" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B240" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C240" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D240" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="241" spans="1:4">
       <x:c r="A241" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B241" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C241" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D241" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:4">
@@ -4676,10 +4838,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C242" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D242" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:4">
@@ -4690,262 +4852,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C243" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D243" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:4">
       <x:c r="A244" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B244" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C244" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D244" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:4">
       <x:c r="A245" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B245" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C245" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D245" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:4">
       <x:c r="A246" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B246" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C246" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D246" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:4">
       <x:c r="A247" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B247" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C247" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D247" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:4">
       <x:c r="A248" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B248" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C248" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D248" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:4">
       <x:c r="A249" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B249" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C249" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D249" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:4">
       <x:c r="A250" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B250" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C250" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D250" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:4">
       <x:c r="A251" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B251" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C251" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D251" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:4">
       <x:c r="A252" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B252" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C252" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D252" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:4">
       <x:c r="A253" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B253" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C253" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D253" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:4">
       <x:c r="A254" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B254" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C254" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D254" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:4">
       <x:c r="A255" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B255" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C255" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D255" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:4">
       <x:c r="A256" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B256" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C256" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D256" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:4">
       <x:c r="A257" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B257" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C257" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D257" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:4">
       <x:c r="A258" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B258" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C258" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D258" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:4">
       <x:c r="A259" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B259" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C259" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D259" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:4">
       <x:c r="A260" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B260" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C260" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D260" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:4">
       <x:c r="A261" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B261" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C261" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D261" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:4">
@@ -4956,10 +5118,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C262" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D262" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:4">
@@ -4970,262 +5132,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C263" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D263" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:4">
       <x:c r="A264" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B264" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C264" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D264" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:4">
       <x:c r="A265" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B265" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C265" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D265" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:4">
       <x:c r="A266" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B266" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C266" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D266" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:4">
       <x:c r="A267" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B267" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C267" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D267" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:4">
       <x:c r="A268" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B268" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C268" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D268" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:4">
       <x:c r="A269" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B269" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C269" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D269" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:4">
       <x:c r="A270" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B270" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C270" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D270" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:4">
       <x:c r="A271" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B271" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C271" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D271" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:4">
       <x:c r="A272" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B272" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C272" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D272" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:4">
       <x:c r="A273" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B273" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C273" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D273" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:4">
       <x:c r="A274" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B274" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C274" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D274" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:4">
       <x:c r="A275" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B275" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C275" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D275" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:4">
       <x:c r="A276" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B276" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C276" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D276" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:4">
       <x:c r="A277" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B277" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C277" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D277" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:4">
       <x:c r="A278" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B278" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C278" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D278" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:4">
       <x:c r="A279" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B279" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C279" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D279" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:4">
       <x:c r="A280" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B280" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C280" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D280" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:4">
       <x:c r="A281" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B281" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C281" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D281" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:4">
@@ -5236,10 +5398,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C282" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D282" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:4">
@@ -5250,262 +5412,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C283" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D283" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:4">
       <x:c r="A284" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B284" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C284" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D284" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:4">
       <x:c r="A285" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B285" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C285" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D285" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:4">
       <x:c r="A286" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B286" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C286" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D286" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:4">
       <x:c r="A287" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B287" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C287" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D287" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="288" spans="1:4">
       <x:c r="A288" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B288" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C288" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D288" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="289" spans="1:4">
       <x:c r="A289" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B289" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C289" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D289" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="290" spans="1:4">
       <x:c r="A290" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B290" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C290" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D290" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="291" spans="1:4">
       <x:c r="A291" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B291" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C291" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D291" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="292" spans="1:4">
       <x:c r="A292" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B292" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C292" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D292" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="293" spans="1:4">
       <x:c r="A293" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B293" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C293" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D293" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="294" spans="1:4">
       <x:c r="A294" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B294" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C294" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D294" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="295" spans="1:4">
       <x:c r="A295" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B295" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C295" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D295" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="296" spans="1:4">
       <x:c r="A296" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B296" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C296" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D296" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="297" spans="1:4">
       <x:c r="A297" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B297" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C297" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D297" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="298" spans="1:4">
       <x:c r="A298" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B298" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C298" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D298" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="299" spans="1:4">
       <x:c r="A299" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B299" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C299" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D299" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="300" spans="1:4">
       <x:c r="A300" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B300" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C300" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D300" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="301" spans="1:4">
       <x:c r="A301" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B301" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C301" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D301" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="302" spans="1:4">
@@ -5516,10 +5678,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C302" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D302" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="303" spans="1:4">
@@ -5530,262 +5692,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C303" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D303" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="304" spans="1:4">
       <x:c r="A304" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B304" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C304" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D304" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="305" spans="1:4">
       <x:c r="A305" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B305" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C305" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D305" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="306" spans="1:4">
       <x:c r="A306" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B306" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C306" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D306" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="307" spans="1:4">
       <x:c r="A307" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B307" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C307" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D307" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="308" spans="1:4">
       <x:c r="A308" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B308" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C308" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D308" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="309" spans="1:4">
       <x:c r="A309" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B309" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C309" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D309" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="310" spans="1:4">
       <x:c r="A310" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B310" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C310" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D310" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="311" spans="1:4">
       <x:c r="A311" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B311" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C311" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D311" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="312" spans="1:4">
       <x:c r="A312" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B312" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C312" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D312" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="313" spans="1:4">
       <x:c r="A313" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B313" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C313" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D313" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="314" spans="1:4">
       <x:c r="A314" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B314" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C314" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D314" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="315" spans="1:4">
       <x:c r="A315" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B315" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C315" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D315" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="316" spans="1:4">
       <x:c r="A316" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B316" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C316" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D316" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="317" spans="1:4">
       <x:c r="A317" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B317" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C317" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D317" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="318" spans="1:4">
       <x:c r="A318" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B318" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C318" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D318" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="319" spans="1:4">
       <x:c r="A319" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B319" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C319" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D319" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="320" spans="1:4">
       <x:c r="A320" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B320" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C320" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D320" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="321" spans="1:4">
       <x:c r="A321" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B321" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C321" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D321" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="322" spans="1:4">
@@ -5796,10 +5958,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C322" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D322" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="323" spans="1:4">
@@ -5810,262 +5972,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C323" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D323" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="324" spans="1:4">
       <x:c r="A324" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B324" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C324" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D324" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="325" spans="1:4">
       <x:c r="A325" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B325" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C325" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D325" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="326" spans="1:4">
       <x:c r="A326" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B326" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C326" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D326" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="327" spans="1:4">
       <x:c r="A327" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B327" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C327" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D327" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="328" spans="1:4">
       <x:c r="A328" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B328" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C328" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D328" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="329" spans="1:4">
       <x:c r="A329" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B329" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C329" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D329" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="330" spans="1:4">
       <x:c r="A330" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B330" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C330" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D330" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="331" spans="1:4">
       <x:c r="A331" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B331" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C331" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D331" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="332" spans="1:4">
       <x:c r="A332" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B332" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C332" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D332" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="333" spans="1:4">
       <x:c r="A333" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B333" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C333" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D333" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="334" spans="1:4">
       <x:c r="A334" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B334" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C334" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D334" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="335" spans="1:4">
       <x:c r="A335" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B335" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C335" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D335" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="336" spans="1:4">
       <x:c r="A336" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B336" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C336" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D336" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="337" spans="1:4">
       <x:c r="A337" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B337" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C337" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D337" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="338" spans="1:4">
       <x:c r="A338" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B338" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C338" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D338" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="339" spans="1:4">
       <x:c r="A339" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B339" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C339" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D339" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="340" spans="1:4">
       <x:c r="A340" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B340" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C340" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D340" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="341" spans="1:4">
       <x:c r="A341" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B341" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C341" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D341" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="342" spans="1:4">
@@ -6076,10 +6238,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C342" s="1" t="s">
-        <x:v>11</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="D342" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="343" spans="1:4">
@@ -6090,262 +6252,262 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C343" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D343" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="344" spans="1:4">
       <x:c r="A344" s="1" t="s">
-        <x:v>16</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="B344" s="1" t="s">
-        <x:v>17</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C344" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="D344" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="345" spans="1:4">
       <x:c r="A345" s="1" t="s">
-        <x:v>20</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B345" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C345" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D345" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="346" spans="1:4">
       <x:c r="A346" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B346" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C346" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D346" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="347" spans="1:4">
       <x:c r="A347" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B347" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C347" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D347" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="348" spans="1:4">
       <x:c r="A348" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B348" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C348" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D348" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="349" spans="1:4">
       <x:c r="A349" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B349" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C349" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="D349" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="350" spans="1:4">
       <x:c r="A350" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="B350" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C350" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="D350" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="351" spans="1:4">
       <x:c r="A351" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B351" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C351" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D351" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="352" spans="1:4">
       <x:c r="A352" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B352" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="C352" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="D352" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="353" spans="1:4">
       <x:c r="A353" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B353" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C353" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="D353" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="354" spans="1:4">
       <x:c r="A354" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B354" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C354" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D354" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="355" spans="1:4">
       <x:c r="A355" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B355" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C355" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="D355" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="356" spans="1:4">
       <x:c r="A356" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B356" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C356" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="D356" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="357" spans="1:4">
       <x:c r="A357" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B357" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="C357" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D357" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="358" spans="1:4">
       <x:c r="A358" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B358" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C358" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="D358" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="359" spans="1:4">
       <x:c r="A359" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B359" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="C359" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D359" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="360" spans="1:4">
       <x:c r="A360" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B360" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C360" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="D360" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="361" spans="1:4">
       <x:c r="A361" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B361" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C361" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D361" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6370,296 +6532,1679 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>12</x:v>
+        <x:v>147</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
         <x:v>107</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="s">
-        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>110</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>162</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>112</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>113</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="1" t="s">
-        <x:v>114</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>118</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D16" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>177</x:v>
+      </x:c>
+      <x:c r="D16" s="1" t="s"/>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="1" t="s">
-        <x:v>122</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>181</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>90</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>190</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>15</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:4">
+      <x:c r="A22" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B22" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C22" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D22" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:4">
+      <x:c r="A23" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B23" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C23" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D23" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:4">
+      <x:c r="A24" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B24" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C24" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D24" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:4">
+      <x:c r="A25" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D25" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:4">
+      <x:c r="A26" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D26" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:4">
+      <x:c r="A27" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D27" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:4">
+      <x:c r="A28" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:4">
+      <x:c r="A29" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:4">
+      <x:c r="A30" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:4">
+      <x:c r="A31" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:4">
+      <x:c r="A32" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:4">
+      <x:c r="A33" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:4">
+      <x:c r="A34" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:4">
+      <x:c r="A35" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:4">
+      <x:c r="A36" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:4">
+      <x:c r="A37" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:4">
+      <x:c r="A38" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:4">
+      <x:c r="A39" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:4">
+      <x:c r="A40" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:4">
+      <x:c r="A41" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:4">
+      <x:c r="A42" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:4">
+      <x:c r="A43" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:4">
+      <x:c r="A44" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:4">
+      <x:c r="A45" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:4">
+      <x:c r="A46" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:4">
+      <x:c r="A47" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:4">
+      <x:c r="A48" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:4">
+      <x:c r="A49" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:4">
+      <x:c r="A50" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:4">
+      <x:c r="A51" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:4">
+      <x:c r="A52" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:4">
+      <x:c r="A53" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B53" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C53" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D53" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:4">
+      <x:c r="A54" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B54" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C54" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D54" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:4">
+      <x:c r="A55" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B55" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C55" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D55" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:4">
+      <x:c r="A56" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B56" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C56" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:4">
+      <x:c r="A57" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B57" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C57" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D57" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:4">
+      <x:c r="A58" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B58" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C58" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D58" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:4">
+      <x:c r="A59" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B59" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C59" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D59" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:4">
+      <x:c r="A60" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B60" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C60" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D60" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="61" spans="1:4">
+      <x:c r="A61" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B61" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C61" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D61" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="62" spans="1:4">
+      <x:c r="A62" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B62" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C62" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D62" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="63" spans="1:4">
+      <x:c r="A63" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B63" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C63" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D63" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="64" spans="1:4">
+      <x:c r="A64" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B64" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C64" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D64" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="65" spans="1:4">
+      <x:c r="A65" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B65" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C65" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D65" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="66" spans="1:4">
+      <x:c r="A66" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B66" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C66" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D66" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="67" spans="1:4">
+      <x:c r="A67" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B67" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C67" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D67" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="68" spans="1:4">
+      <x:c r="A68" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B68" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C68" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D68" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="69" spans="1:4">
+      <x:c r="A69" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B69" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C69" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D69" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="70" spans="1:4">
+      <x:c r="A70" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B70" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C70" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D70" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="71" spans="1:4">
+      <x:c r="A71" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B71" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C71" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D71" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="72" spans="1:4">
+      <x:c r="A72" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B72" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C72" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D72" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="73" spans="1:4">
+      <x:c r="A73" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B73" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C73" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D73" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="74" spans="1:4">
+      <x:c r="A74" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B74" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C74" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D74" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="75" spans="1:4">
+      <x:c r="A75" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B75" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C75" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D75" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="76" spans="1:4">
+      <x:c r="A76" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B76" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C76" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="77" spans="1:4">
+      <x:c r="A77" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B77" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C77" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D77" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="78" spans="1:4">
+      <x:c r="A78" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B78" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C78" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D78" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="79" spans="1:4">
+      <x:c r="A79" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B79" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C79" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D79" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="80" spans="1:4">
+      <x:c r="A80" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B80" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C80" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D80" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="81" spans="1:4">
+      <x:c r="A81" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B81" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C81" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D81" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="82" spans="1:4">
+      <x:c r="A82" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B82" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C82" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D82" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="83" spans="1:4">
+      <x:c r="A83" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B83" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C83" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D83" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="84" spans="1:4">
+      <x:c r="A84" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B84" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C84" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D84" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="85" spans="1:4">
+      <x:c r="A85" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B85" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C85" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D85" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="86" spans="1:4">
+      <x:c r="A86" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B86" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C86" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D86" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="87" spans="1:4">
+      <x:c r="A87" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B87" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C87" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D87" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="88" spans="1:4">
+      <x:c r="A88" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B88" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C88" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D88" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="89" spans="1:4">
+      <x:c r="A89" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B89" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C89" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D89" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="90" spans="1:4">
+      <x:c r="A90" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B90" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C90" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D90" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="91" spans="1:4">
+      <x:c r="A91" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B91" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C91" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D91" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="92" spans="1:4">
+      <x:c r="A92" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B92" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C92" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D92" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="93" spans="1:4">
+      <x:c r="A93" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B93" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C93" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D93" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="94" spans="1:4">
+      <x:c r="A94" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B94" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C94" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D94" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="95" spans="1:4">
+      <x:c r="A95" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B95" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C95" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D95" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="96" spans="1:4">
+      <x:c r="A96" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B96" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C96" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="97" spans="1:4">
+      <x:c r="A97" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B97" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C97" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D97" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="98" spans="1:4">
+      <x:c r="A98" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B98" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C98" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D98" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="99" spans="1:4">
+      <x:c r="A99" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B99" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C99" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D99" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="100" spans="1:4">
+      <x:c r="A100" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B100" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C100" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D100" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="101" spans="1:4">
+      <x:c r="A101" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B101" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C101" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D101" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="102" spans="1:4">
+      <x:c r="A102" s="1" t="s">
+        <x:v>138</x:v>
+      </x:c>
+      <x:c r="B102" s="1" t="s">
+        <x:v>139</x:v>
+      </x:c>
+      <x:c r="C102" s="1" t="s">
+        <x:v>140</x:v>
+      </x:c>
+      <x:c r="D102" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="103" spans="1:4">
+      <x:c r="A103" s="1" t="s">
+        <x:v>141</x:v>
+      </x:c>
+      <x:c r="B103" s="1" t="s">
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="C103" s="1" t="s">
+        <x:v>143</x:v>
+      </x:c>
+      <x:c r="D103" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="104" spans="1:4">
+      <x:c r="A104" s="1" t="s">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="B104" s="1" t="s">
+        <x:v>145</x:v>
+      </x:c>
+      <x:c r="C104" s="1" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="D104" s="1" t="s">
+        <x:v>147</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="105" spans="1:4">
+      <x:c r="A105" s="1" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="B105" s="1" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C105" s="1" t="s">
+        <x:v>112</x:v>
+      </x:c>
+      <x:c r="D105" s="1" t="s">
+        <x:v>80</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="106" spans="1:4">
+      <x:c r="A106" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B106" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C106" s="1" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="D106" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="107" spans="1:4">
+      <x:c r="A107" s="1" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="B107" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="C107" s="1" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="D107" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="108" spans="1:4">
+      <x:c r="A108" s="1" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B108" s="1" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="C108" s="1" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="D108" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="109" spans="1:4">
+      <x:c r="A109" s="1" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="B109" s="1" t="s">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="C109" s="1" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="D109" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="110" spans="1:4">
+      <x:c r="A110" s="1" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B110" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C110" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D110" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="111" spans="1:4">
+      <x:c r="A111" s="1" t="s">
+        <x:v>159</x:v>
+      </x:c>
+      <x:c r="B111" s="1" t="s">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="C111" s="1" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="D111" s="1" t="s">
+        <x:v>162</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="112" spans="1:4">
+      <x:c r="A112" s="1" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B112" s="1" t="s">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="C112" s="1" t="s">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="D112" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="113" spans="1:4">
+      <x:c r="A113" s="1" t="s">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B113" s="1" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="C113" s="1" t="s">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="D113" s="1" t="s">
+        <x:v>169</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="114" spans="1:4">
+      <x:c r="A114" s="1" t="s">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B114" s="1" t="s">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="C114" s="1" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="D114" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="115" spans="1:4">
+      <x:c r="A115" s="1" t="s">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B115" s="1" t="s">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="C115" s="1" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="D115" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="116" spans="1:4">
+      <x:c r="A116" s="1" t="s">
+        <x:v>175</x:v>
+      </x:c>
+      <x:c r="B116" s="1" t="s">
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="C116" s="1" t="s">
+        <x:v>177</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="117" spans="1:4">
+      <x:c r="A117" s="1" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="B117" s="1" t="s">
+        <x:v>179</x:v>
+      </x:c>
+      <x:c r="C117" s="1" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="D117" s="1" t="s">
+        <x:v>149</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="118" spans="1:4">
+      <x:c r="A118" s="1" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="B118" s="1" t="s">
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="C118" s="1" t="s">
+        <x:v>183</x:v>
+      </x:c>
+      <x:c r="D118" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="119" spans="1:4">
+      <x:c r="A119" s="1" t="s">
+        <x:v>184</x:v>
+      </x:c>
+      <x:c r="B119" s="1" t="s">
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="C119" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D119" s="1" t="s">
+        <x:v>186</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="120" spans="1:4">
+      <x:c r="A120" s="1" t="s">
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B120" s="1" t="s">
+        <x:v>188</x:v>
+      </x:c>
+      <x:c r="C120" s="1" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="D120" s="1" t="s">
+        <x:v>109</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="121" spans="1:4">
+      <x:c r="A121" s="1" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B121" s="1" t="s">
+        <x:v>190</x:v>
+      </x:c>
+      <x:c r="C121" s="1" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="D121" s="1" t="s">
+        <x:v>186</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6684,296 +8229,296 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>28</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>29</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>195</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>200</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="1" t="s">
-        <x:v>31</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>32</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>201</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>202</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>197</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>205</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>207</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>186</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>211</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>214</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>215</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>216</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>30</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>220</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>222</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>223</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>224</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>98</x:v>
+        <x:v>149</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>226</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>227</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>228</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -6998,296 +8543,296 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>6</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
-        <x:v>7</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="D1" s="1" t="s">
-        <x:v>8</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
       <x:c r="A2" s="1" t="s">
-        <x:v>178</x:v>
+        <x:v>229</x:v>
       </x:c>
       <x:c r="B2" s="1" t="s">
-        <x:v>179</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C2" s="1" t="s">
-        <x:v>180</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D2" s="1" t="s">
-        <x:v>181</x:v>
+        <x:v>231</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="A3" s="1" t="s">
-        <x:v>182</x:v>
+        <x:v>232</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>183</x:v>
+        <x:v>233</x:v>
       </x:c>
       <x:c r="C3" s="1" t="s">
-        <x:v>184</x:v>
+        <x:v>234</x:v>
       </x:c>
       <x:c r="D3" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="1" t="s">
-        <x:v>185</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>186</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="C4" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>217</x:v>
       </x:c>
       <x:c r="D4" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="1" t="s">
-        <x:v>187</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>188</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>189</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="D5" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="1" t="s">
-        <x:v>190</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>191</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>192</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D6" s="1" t="s">
-        <x:v>27</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="1" t="s">
-        <x:v>193</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>194</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>195</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="D7" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
       <x:c r="A8" s="1" t="s">
-        <x:v>196</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>197</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="A9" s="1" t="s">
-        <x:v>198</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>199</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>200</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="1" t="s">
-        <x:v>201</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>202</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>212</x:v>
       </x:c>
       <x:c r="D10" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>206</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
       <x:c r="A11" s="1" t="s">
-        <x:v>203</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>204</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>205</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="D11" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="1" t="s">
-        <x:v>206</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>207</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>208</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D12" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="1" t="s">
-        <x:v>209</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>210</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>169</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="1" t="s">
-        <x:v>211</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>212</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>213</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="1" t="s">
-        <x:v>214</x:v>
+        <x:v>264</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>215</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>216</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="D15" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>98</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="1" t="s">
-        <x:v>217</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>218</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>219</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D16" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="1" t="s">
-        <x:v>220</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>221</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D17" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="1" t="s">
-        <x:v>222</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>223</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>224</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="D18" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="1" t="s">
-        <x:v>225</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>226</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>227</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D19" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="1" t="s">
-        <x:v>228</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>229</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D20" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>100</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="1" t="s">
-        <x:v>230</x:v>
+        <x:v>280</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>231</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
-        <x:v>232</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="D21" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
